--- a/results/Analysis_Sensitivity/Sens.ExcludeSmoking_Association/scaled/06_LR.M1.Scaled.Coef.xlsx
+++ b/results/Analysis_Sensitivity/Sens.ExcludeSmoking_Association/scaled/06_LR.M1.Scaled.Coef.xlsx
@@ -417,69 +417,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>Triglycerides</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-0.10 (-0.16, -0.03)</t>
+          <t>-0.11 (-0.16, -0.05)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.10 (-0.16, -0.04)</t>
+          <t>-0.12 (-0.17, -0.06)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>-0.15 (-0.20, -0.09)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>-0.13 (-0.19, -0.07)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-0.10 (-0.16, -0.04)</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-0.09 (-0.15, -0.02)</t>
+          <t>-0.10 (-0.15, -0.04)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>Total cholesterol</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.11 (0.05, 0.17)</t>
+          <t>0.11 (0.06, 0.17)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.11 (0.06, 0.17)</t>
+          <t>0.12 (0.06, 0.17)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -504,12 +504,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.13 (0.07, 0.19)</t>
+          <t>0.14 (0.08, 0.19)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.12 (0.06, 0.18)</t>
+          <t>0.13 (0.07, 0.18)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0.23 (-0.30, -0.17)</t>
+          <t>-0.21 (-0.27, -0.15)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.18 (-0.24, -0.12)</t>
+          <t>-0.22 (-0.28, -0.16)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.22 (-0.28, -0.16)</t>
+          <t>-0.25 (-0.31, -0.19)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-0.29 (-0.35, -0.23)</t>
+          <t>-0.30 (-0.37, -0.24)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-0.18 (-0.24, -0.11)</t>
+          <t>-0.21 (-0.27, -0.15)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -593,17 +593,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.15 (0.09, 0.21)</t>
+          <t>0.10 (0.04, 0.15)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.17 (0.11, 0.22)</t>
+          <t>0.11 (0.05, 0.16)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -613,17 +613,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.18 (0.12, 0.23)</t>
+          <t>0.07 (0.01, 0.12)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.21 (0.15, 0.26)</t>
+          <t>0.11 (0.05, 0.17)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.16 (0.10, 0.22)</t>
+          <t>0.11 (0.05, 0.17)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -650,52 +650,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.09 (0.03, 0.16)</t>
+          <t>0.16 (0.10, 0.21)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.10 (0.04, 0.16)</t>
+          <t>0.17 (0.12, 0.23)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.06 (-0.00, 0.12)</t>
+          <t>0.17 (0.12, 0.22)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.10 (0.04, 0.16)</t>
+          <t>0.22 (0.16, 0.27)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.10 (0.04, 0.16)</t>
+          <t>0.17 (0.12, 0.22)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -707,12 +707,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.03 (-0.10, 0.03)</t>
+          <t>-0.02 (-0.08, 0.04)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.299</t>
+          <t>0.463</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -722,37 +722,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.472</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.03 (-0.09, 0.03)</t>
+          <t>-0.03 (-0.08, 0.03)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.359</t>
+          <t>0.328</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-0.07 (-0.13, -0.01)</t>
+          <t>-0.06 (-0.12, -0.01)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.033</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.02 (-0.08, 0.04)</t>
+          <t>-0.02 (-0.07, 0.04)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.473</t>
+          <t>0.583</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.30 (0.24, 0.35)</t>
+          <t>0.27 (0.22, 0.32)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.30 (0.25, 0.35)</t>
+          <t>0.35 (0.30, 0.40)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.21 (0.16, 0.27)</t>
+          <t>0.28 (0.23, 0.34)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.36 (0.30, 0.41)</t>
+          <t>0.40 (0.35, 0.45)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.29 (0.24, 0.34)</t>
+          <t>0.32 (0.27, 0.38)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.26 (0.19, 0.32)</t>
+          <t>0.21 (0.15, 0.27)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.24 (0.17, 0.30)</t>
+          <t>0.25 (0.19, 0.31)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.18 (0.12, 0.24)</t>
+          <t>0.21 (0.15, 0.26)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.26 (0.20, 0.33)</t>
+          <t>0.27 (0.21, 0.33)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.25 (0.18, 0.31)</t>
+          <t>0.24 (0.18, 0.30)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-0.10 (-0.16, -0.03)</t>
+          <t>-0.08 (-0.14, -0.03)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -893,24 +893,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>-0.13 (-0.19, -0.08)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>-0.12 (-0.18, -0.06)</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-0.13 (-0.19, -0.06)</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>0.000</t>
@@ -918,12 +918,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-0.08 (-0.14, -0.02)</t>
+          <t>-0.08 (-0.14, -0.03)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.004</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.13 (0.08, 0.18)</t>
+          <t>0.11 (0.06, 0.16)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.17 (0.12, 0.22)</t>
+          <t>0.18 (0.13, 0.22)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.15 (0.10, 0.20)</t>
+          <t>0.16 (0.11, 0.21)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
